--- a/48. Toy_Company_Regression_Analysis.xlsx
+++ b/48. Toy_Company_Regression_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8950A4-69C9-4148-A437-5D352897D159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D4F1BF-7FA2-4697-B90D-79F26F8470A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{363051B2-1C44-42D6-BD5C-A91455D581A5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t xml:space="preserve">Initial Cost: </t>
   </si>
@@ -100,12 +100,27 @@
   </si>
   <si>
     <t>The Compnay have to maintain a growth rate of approximatel 48.8% in sales to repay the initial development cost of 4 million dollars.</t>
+  </si>
+  <si>
+    <t>Net Present Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: </t>
+  </si>
+  <si>
+    <t>In the NPV formula, the discount rate should be in decimal.</t>
+  </si>
+  <si>
+    <t>So, assuming a discount rate of 5%, a growth rate of 58.9% is required to pay back the initial cost at the end of the fifth year, taking into consideration the time value of money.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ \-#,##0.00"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,12 +153,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -195,7 +222,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -212,11 +239,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -677,26 +708,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC9B2F8-7063-41CD-8013-C38246B65398}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -713,7 +745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -736,7 +768,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -745,18 +777,18 @@
       </c>
       <c r="G6" s="5">
         <f t="shared" ref="G6:G9" si="0">(H6/2)+(($B$10-(F6-1)*$B$11)/100)*H6</f>
-        <v>2618880</v>
+        <v>2796640</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" ref="H6:H9" si="1">(($B$15*(1+($B$17/100))^(F6-1))*$B$16)</f>
-        <v>2976000</v>
+        <v>3178000</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" ref="I6:I9" si="2">H6-G6</f>
-        <v>357120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>381360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -771,18 +803,18 @@
       </c>
       <c r="G7" s="5">
         <f t="shared" si="0"/>
-        <v>3808327.6799999997</v>
+        <v>4342864.12</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="1"/>
-        <v>4428288</v>
+        <v>5049842</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="2"/>
-        <v>619960.3200000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>706977.87999999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -795,19 +827,19 @@
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>5535005.7369600013</v>
+        <v>6740327.1079200003</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="1"/>
-        <v>6589292.5440000007</v>
+        <v>8024198.9380000001</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="2"/>
-        <v>1054286.8070399994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+        <v>1283871.8300799998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="6">
@@ -815,55 +847,66 @@
       </c>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
-        <v>8039991.1904870411</v>
+        <v>10455370.73223524</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="1"/>
-        <v>9804867.3054720014</v>
+        <v>12750452.112482</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="2"/>
-        <v>1764876.1149849603</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2295081.3802467603</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="I10" s="10">
+      <c r="G10" s="9"/>
+      <c r="I10" s="9">
         <f>SUM(I5:I9)</f>
-        <v>3996243.24202496</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4867291.09032676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
@@ -871,7 +914,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>2</v>
       </c>
@@ -886,8 +929,8 @@
       <c r="A17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1">
-        <v>48.8</v>
+      <c r="B17" s="10">
+        <v>58.9</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -899,6 +942,20 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="12">
+        <f>NPV(0.05, I5:I9)</f>
+        <v>4001595.8739753081</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
